--- a/outputs/2025-05-20/ecosystem_trend_summary_2025-05-20.xlsx
+++ b/outputs/2025-05-20/ecosystem_trend_summary_2025-05-20.xlsx
@@ -454,7 +454,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -464,7 +464,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4">
@@ -474,7 +474,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -573,13 +573,13 @@
         <v>2010</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -590,10 +590,10 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>13</v>
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -601,13 +601,13 @@
         <v>2013</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>36</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>22</v>
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -632,7 +632,7 @@
         <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -643,13 +643,13 @@
         <v>2020</v>
       </c>
       <c r="B7" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>24</v>
+        <v>7</v>
       </c>
       <c r="D7" t="n">
-        <v>16</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8">
@@ -660,7 +660,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -677,7 +677,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -714,7 +714,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3">
@@ -730,36 +730,6 @@
       </c>
       <c r="C3" t="n">
         <v>1</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>DLTR</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>opportunity, risk, assertive</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>GOOG</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>opportunity</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/outputs/2025-05-20/ecosystem_trend_summary_2025-05-20.xlsx
+++ b/outputs/2025-05-20/ecosystem_trend_summary_2025-05-20.xlsx
@@ -427,7 +427,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B381"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -450,27 +450,27 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>APD</t>
+          <t>A</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>DLTR</t>
+          <t>AAL</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GOOG</t>
+          <t>AAP</t>
         </is>
       </c>
       <c r="B4" t="n">
@@ -480,17 +480,17 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>INCY</t>
+          <t>ABC</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>KO</t>
+          <t>ABT</t>
         </is>
       </c>
       <c r="B6" t="n">
@@ -500,7 +500,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>MOS</t>
+          <t>ACN</t>
         </is>
       </c>
       <c r="B7" t="n">
@@ -510,7 +510,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>TAP</t>
+          <t>ADBE</t>
         </is>
       </c>
       <c r="B8" t="n">
@@ -520,10 +520,3730 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>ADM</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>ADP</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>ADSK</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>AEE</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>AEP</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>AES</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>AFL</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>AIG</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>AJG</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>AKAM</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>ALB</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>ALGN</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>ALLE</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>AMCR</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>AMD</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>AME</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>AMGN</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>AMP</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>AMT</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>AMZN</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>ANET</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>ANSS</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>AON</t>
+        </is>
+      </c>
+      <c r="B31" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>APA</t>
+        </is>
+      </c>
+      <c r="B32" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>APD</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>APH</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>APTV</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>ARE</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>ATO</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>ATVI</t>
+        </is>
+      </c>
+      <c r="B38" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>AVB</t>
+        </is>
+      </c>
+      <c r="B39" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>AWK</t>
+        </is>
+      </c>
+      <c r="B40" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>AXP</t>
+        </is>
+      </c>
+      <c r="B41" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>AZO</t>
+        </is>
+      </c>
+      <c r="B42" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>BA</t>
+        </is>
+      </c>
+      <c r="B43" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>BAX</t>
+        </is>
+      </c>
+      <c r="B44" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>BBWI</t>
+        </is>
+      </c>
+      <c r="B45" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>BBY</t>
+        </is>
+      </c>
+      <c r="B46" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>BDX</t>
+        </is>
+      </c>
+      <c r="B47" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>BF.B</t>
+        </is>
+      </c>
+      <c r="B48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>BIIB</t>
+        </is>
+      </c>
+      <c r="B49" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>BIO</t>
+        </is>
+      </c>
+      <c r="B50" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>BK</t>
+        </is>
+      </c>
+      <c r="B51" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>BKNG</t>
+        </is>
+      </c>
+      <c r="B52" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>BKR</t>
+        </is>
+      </c>
+      <c r="B53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>BLK</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>BMY</t>
+        </is>
+      </c>
+      <c r="B55" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>BSX</t>
+        </is>
+      </c>
+      <c r="B56" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>BWA</t>
+        </is>
+      </c>
+      <c r="B57" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>BXP</t>
+        </is>
+      </c>
+      <c r="B58" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>CAG</t>
+        </is>
+      </c>
+      <c r="B59" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>CAH</t>
+        </is>
+      </c>
+      <c r="B60" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>CARR</t>
+        </is>
+      </c>
+      <c r="B61" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>CAT</t>
+        </is>
+      </c>
+      <c r="B62" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>CBOE</t>
+        </is>
+      </c>
+      <c r="B63" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>CCI</t>
+        </is>
+      </c>
+      <c r="B64" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>CCL</t>
+        </is>
+      </c>
+      <c r="B65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>CDAY</t>
+        </is>
+      </c>
+      <c r="B66" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>CDNS</t>
+        </is>
+      </c>
+      <c r="B67" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>CE</t>
+        </is>
+      </c>
+      <c r="B68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>CF</t>
+        </is>
+      </c>
+      <c r="B69" t="n">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>CFG</t>
+        </is>
+      </c>
+      <c r="B70" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>CHD</t>
+        </is>
+      </c>
+      <c r="B71" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>CI</t>
+        </is>
+      </c>
+      <c r="B72" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>CL</t>
+        </is>
+      </c>
+      <c r="B73" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>CLX</t>
+        </is>
+      </c>
+      <c r="B74" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>CMA</t>
+        </is>
+      </c>
+      <c r="B75" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>CMCSA</t>
+        </is>
+      </c>
+      <c r="B76" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>CME</t>
+        </is>
+      </c>
+      <c r="B77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>CMG</t>
+        </is>
+      </c>
+      <c r="B78" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>CMI</t>
+        </is>
+      </c>
+      <c r="B79" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>CMS</t>
+        </is>
+      </c>
+      <c r="B80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>CNP</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>COF</t>
+        </is>
+      </c>
+      <c r="B82" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>COO</t>
+        </is>
+      </c>
+      <c r="B83" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>COP</t>
+        </is>
+      </c>
+      <c r="B84" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>CPRT</t>
+        </is>
+      </c>
+      <c r="B85" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>CRL</t>
+        </is>
+      </c>
+      <c r="B86" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>CRM</t>
+        </is>
+      </c>
+      <c r="B87" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>CSCO</t>
+        </is>
+      </c>
+      <c r="B88" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>CSX</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>CTAS</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>CTSH</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>CTXS</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>CVS</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>CVX</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>CZR</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>DAL</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>DD</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>DG</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>DGX</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>DHI</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>DHR</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>DIS</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>DISH</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>DLR</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>DLTR</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>DOV</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>DOW</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>DPZ</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>DRI</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>DTE</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>DUK</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>DVA</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>DVN</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>DXCM</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>EBAY</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>ECL</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>EIX</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>EL</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>ELV</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>EMN</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>EMR</t>
+        </is>
+      </c>
+      <c r="B122" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>ENPH</t>
+        </is>
+      </c>
+      <c r="B123" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>EOG</t>
+        </is>
+      </c>
+      <c r="B124" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>EPAM</t>
+        </is>
+      </c>
+      <c r="B125" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>EQIX</t>
+        </is>
+      </c>
+      <c r="B126" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>EQR</t>
+        </is>
+      </c>
+      <c r="B127" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="B128" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>ESS</t>
+        </is>
+      </c>
+      <c r="B129" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>ETN</t>
+        </is>
+      </c>
+      <c r="B130" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>ETR</t>
+        </is>
+      </c>
+      <c r="B131" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>ETSY</t>
+        </is>
+      </c>
+      <c r="B132" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>EW</t>
+        </is>
+      </c>
+      <c r="B133" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>EXC</t>
+        </is>
+      </c>
+      <c r="B134" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>EXPE</t>
+        </is>
+      </c>
+      <c r="B135" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>F</t>
+        </is>
+      </c>
+      <c r="B136" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>FANG</t>
+        </is>
+      </c>
+      <c r="B137" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>FAST</t>
+        </is>
+      </c>
+      <c r="B138" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>FCX</t>
+        </is>
+      </c>
+      <c r="B139" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>FDS</t>
+        </is>
+      </c>
+      <c r="B140" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>FDX</t>
+        </is>
+      </c>
+      <c r="B141" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>FE</t>
+        </is>
+      </c>
+      <c r="B142" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>FISV</t>
+        </is>
+      </c>
+      <c r="B143" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>FITB</t>
+        </is>
+      </c>
+      <c r="B144" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>FMC</t>
+        </is>
+      </c>
+      <c r="B145" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>FOXA</t>
+        </is>
+      </c>
+      <c r="B146" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>FRT</t>
+        </is>
+      </c>
+      <c r="B147" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>GE</t>
+        </is>
+      </c>
+      <c r="B148" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>GILD</t>
+        </is>
+      </c>
+      <c r="B149" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>GLW</t>
+        </is>
+      </c>
+      <c r="B150" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>GM</t>
+        </is>
+      </c>
+      <c r="B151" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>GOOG</t>
+        </is>
+      </c>
+      <c r="B152" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>GOOGL</t>
+        </is>
+      </c>
+      <c r="B153" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>GPC</t>
+        </is>
+      </c>
+      <c r="B154" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>GPN</t>
+        </is>
+      </c>
+      <c r="B155" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>GS</t>
+        </is>
+      </c>
+      <c r="B156" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>HAL</t>
+        </is>
+      </c>
+      <c r="B157" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>HBAN</t>
+        </is>
+      </c>
+      <c r="B158" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>HD</t>
+        </is>
+      </c>
+      <c r="B159" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>HII</t>
+        </is>
+      </c>
+      <c r="B160" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>HLT</t>
+        </is>
+      </c>
+      <c r="B161" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>HOLX</t>
+        </is>
+      </c>
+      <c r="B162" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>HON</t>
+        </is>
+      </c>
+      <c r="B163" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>HPE</t>
+        </is>
+      </c>
+      <c r="B164" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>HPQ</t>
+        </is>
+      </c>
+      <c r="B165" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>HRL</t>
+        </is>
+      </c>
+      <c r="B166" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>HSIC</t>
+        </is>
+      </c>
+      <c r="B167" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>HST</t>
+        </is>
+      </c>
+      <c r="B168" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>HSY</t>
+        </is>
+      </c>
+      <c r="B169" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>HUM</t>
+        </is>
+      </c>
+      <c r="B170" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>HWM</t>
+        </is>
+      </c>
+      <c r="B171" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="B172" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>ICE</t>
+        </is>
+      </c>
+      <c r="B173" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>IDXX</t>
+        </is>
+      </c>
+      <c r="B174" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>IEX</t>
+        </is>
+      </c>
+      <c r="B175" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>IFF</t>
+        </is>
+      </c>
+      <c r="B176" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>ILMN</t>
+        </is>
+      </c>
+      <c r="B177" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>INCY</t>
+        </is>
+      </c>
+      <c r="B178" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>INTC</t>
+        </is>
+      </c>
+      <c r="B179" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>IP</t>
+        </is>
+      </c>
+      <c r="B180" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>IPG</t>
+        </is>
+      </c>
+      <c r="B181" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>IQV</t>
+        </is>
+      </c>
+      <c r="B182" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>IR</t>
+        </is>
+      </c>
+      <c r="B183" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>ITW</t>
+        </is>
+      </c>
+      <c r="B184" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="B185" t="n">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>JKHY</t>
+        </is>
+      </c>
+      <c r="B186" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>JNJ</t>
+        </is>
+      </c>
+      <c r="B187" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>JNPR</t>
+        </is>
+      </c>
+      <c r="B188" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>JPM</t>
+        </is>
+      </c>
+      <c r="B189" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>K</t>
+        </is>
+      </c>
+      <c r="B190" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>KHC</t>
+        </is>
+      </c>
+      <c r="B191" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>KIM</t>
+        </is>
+      </c>
+      <c r="B192" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>KMB</t>
+        </is>
+      </c>
+      <c r="B193" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>KMI</t>
+        </is>
+      </c>
+      <c r="B194" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>KMX</t>
+        </is>
+      </c>
+      <c r="B195" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>KO</t>
+        </is>
+      </c>
+      <c r="B196" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>L</t>
+        </is>
+      </c>
+      <c r="B197" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>LDOS</t>
+        </is>
+      </c>
+      <c r="B198" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>LEN</t>
+        </is>
+      </c>
+      <c r="B199" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>LH</t>
+        </is>
+      </c>
+      <c r="B200" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>LHX</t>
+        </is>
+      </c>
+      <c r="B201" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>LIN</t>
+        </is>
+      </c>
+      <c r="B202" t="n">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>LKQ</t>
+        </is>
+      </c>
+      <c r="B203" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>LLY</t>
+        </is>
+      </c>
+      <c r="B204" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>LMT</t>
+        </is>
+      </c>
+      <c r="B205" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>LNC</t>
+        </is>
+      </c>
+      <c r="B206" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>LOW</t>
+        </is>
+      </c>
+      <c r="B207" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>LRCX</t>
+        </is>
+      </c>
+      <c r="B208" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>LUV</t>
+        </is>
+      </c>
+      <c r="B209" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>LVS</t>
+        </is>
+      </c>
+      <c r="B210" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>LW</t>
+        </is>
+      </c>
+      <c r="B211" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>LYB</t>
+        </is>
+      </c>
+      <c r="B212" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>MA</t>
+        </is>
+      </c>
+      <c r="B213" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>MAA</t>
+        </is>
+      </c>
+      <c r="B214" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>MAS</t>
+        </is>
+      </c>
+      <c r="B215" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>MCD</t>
+        </is>
+      </c>
+      <c r="B216" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>MCHP</t>
+        </is>
+      </c>
+      <c r="B217" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>MCK</t>
+        </is>
+      </c>
+      <c r="B218" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>MCO</t>
+        </is>
+      </c>
+      <c r="B219" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>MDLZ</t>
+        </is>
+      </c>
+      <c r="B220" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>MDT</t>
+        </is>
+      </c>
+      <c r="B221" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>MET</t>
+        </is>
+      </c>
+      <c r="B222" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>META</t>
+        </is>
+      </c>
+      <c r="B223" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>MKC</t>
+        </is>
+      </c>
+      <c r="B224" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>MKTX</t>
+        </is>
+      </c>
+      <c r="B225" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>MLM</t>
+        </is>
+      </c>
+      <c r="B226" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>MMC</t>
+        </is>
+      </c>
+      <c r="B227" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>MMM</t>
+        </is>
+      </c>
+      <c r="B228" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>MNST</t>
+        </is>
+      </c>
+      <c r="B229" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>MO</t>
+        </is>
+      </c>
+      <c r="B230" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>MOH</t>
+        </is>
+      </c>
+      <c r="B231" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>MOS</t>
+        </is>
+      </c>
+      <c r="B232" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>MPC</t>
+        </is>
+      </c>
+      <c r="B233" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>MPWR</t>
+        </is>
+      </c>
+      <c r="B234" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>MRK</t>
+        </is>
+      </c>
+      <c r="B235" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>MRNA</t>
+        </is>
+      </c>
+      <c r="B236" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>MRO</t>
+        </is>
+      </c>
+      <c r="B237" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>MSFT</t>
+        </is>
+      </c>
+      <c r="B238" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>MSI</t>
+        </is>
+      </c>
+      <c r="B239" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>MTCH</t>
+        </is>
+      </c>
+      <c r="B240" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>MTD</t>
+        </is>
+      </c>
+      <c r="B241" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>NCLH</t>
+        </is>
+      </c>
+      <c r="B242" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>NEE</t>
+        </is>
+      </c>
+      <c r="B243" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>NEM</t>
+        </is>
+      </c>
+      <c r="B244" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>NFLX</t>
+        </is>
+      </c>
+      <c r="B245" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>NI</t>
+        </is>
+      </c>
+      <c r="B246" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>NKE</t>
+        </is>
+      </c>
+      <c r="B247" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>NLOK</t>
+        </is>
+      </c>
+      <c r="B248" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>NLSN</t>
+        </is>
+      </c>
+      <c r="B249" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>NOC</t>
+        </is>
+      </c>
+      <c r="B250" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>NOW</t>
+        </is>
+      </c>
+      <c r="B251" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>NRG</t>
+        </is>
+      </c>
+      <c r="B252" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>NSC</t>
+        </is>
+      </c>
+      <c r="B253" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>NTAP</t>
+        </is>
+      </c>
+      <c r="B254" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>NTRS</t>
+        </is>
+      </c>
+      <c r="B255" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>NUE</t>
+        </is>
+      </c>
+      <c r="B256" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>NVDA</t>
+        </is>
+      </c>
+      <c r="B257" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>NWL</t>
+        </is>
+      </c>
+      <c r="B258" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>NXPI</t>
+        </is>
+      </c>
+      <c r="B259" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="B260" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>OGN</t>
+        </is>
+      </c>
+      <c r="B261" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>OKE</t>
+        </is>
+      </c>
+      <c r="B262" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>ON</t>
+        </is>
+      </c>
+      <c r="B263" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>ORCL</t>
+        </is>
+      </c>
+      <c r="B264" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>ORLY</t>
+        </is>
+      </c>
+      <c r="B265" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>OTIS</t>
+        </is>
+      </c>
+      <c r="B266" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>OXY</t>
+        </is>
+      </c>
+      <c r="B267" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>PARA</t>
+        </is>
+      </c>
+      <c r="B268" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>PAYC</t>
+        </is>
+      </c>
+      <c r="B269" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>PAYX</t>
+        </is>
+      </c>
+      <c r="B270" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>PCAR</t>
+        </is>
+      </c>
+      <c r="B271" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>PEAK</t>
+        </is>
+      </c>
+      <c r="B272" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>PEG</t>
+        </is>
+      </c>
+      <c r="B273" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>PENN</t>
+        </is>
+      </c>
+      <c r="B274" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>PEP</t>
+        </is>
+      </c>
+      <c r="B275" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>PFE</t>
+        </is>
+      </c>
+      <c r="B276" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>PFG</t>
+        </is>
+      </c>
+      <c r="B277" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>PG</t>
+        </is>
+      </c>
+      <c r="B278" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>PGR</t>
+        </is>
+      </c>
+      <c r="B279" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>PH</t>
+        </is>
+      </c>
+      <c r="B280" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>PKG</t>
+        </is>
+      </c>
+      <c r="B281" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>PLD</t>
+        </is>
+      </c>
+      <c r="B282" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>PM</t>
+        </is>
+      </c>
+      <c r="B283" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>PNC</t>
+        </is>
+      </c>
+      <c r="B284" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>PNR</t>
+        </is>
+      </c>
+      <c r="B285" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>PNW</t>
+        </is>
+      </c>
+      <c r="B286" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>PPG</t>
+        </is>
+      </c>
+      <c r="B287" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>PPL</t>
+        </is>
+      </c>
+      <c r="B288" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>PRU</t>
+        </is>
+      </c>
+      <c r="B289" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>PSA</t>
+        </is>
+      </c>
+      <c r="B290" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>PSX</t>
+        </is>
+      </c>
+      <c r="B291" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>PTC</t>
+        </is>
+      </c>
+      <c r="B292" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>PVH</t>
+        </is>
+      </c>
+      <c r="B293" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>PWR</t>
+        </is>
+      </c>
+      <c r="B294" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>PXD</t>
+        </is>
+      </c>
+      <c r="B295" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>QRVO</t>
+        </is>
+      </c>
+      <c r="B296" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>RCL</t>
+        </is>
+      </c>
+      <c r="B297" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>RE</t>
+        </is>
+      </c>
+      <c r="B298" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>REGN</t>
+        </is>
+      </c>
+      <c r="B299" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>RF</t>
+        </is>
+      </c>
+      <c r="B300" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>RJF</t>
+        </is>
+      </c>
+      <c r="B301" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>RL</t>
+        </is>
+      </c>
+      <c r="B302" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>ROK</t>
+        </is>
+      </c>
+      <c r="B303" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>ROL</t>
+        </is>
+      </c>
+      <c r="B304" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>ROP</t>
+        </is>
+      </c>
+      <c r="B305" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>RSG</t>
+        </is>
+      </c>
+      <c r="B306" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>RTX</t>
+        </is>
+      </c>
+      <c r="B307" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>SBNY</t>
+        </is>
+      </c>
+      <c r="B308" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>SBUX</t>
+        </is>
+      </c>
+      <c r="B309" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>SEDG</t>
+        </is>
+      </c>
+      <c r="B310" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>SEE</t>
+        </is>
+      </c>
+      <c r="B311" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>SHW</t>
+        </is>
+      </c>
+      <c r="B312" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>SJM</t>
+        </is>
+      </c>
+      <c r="B313" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>SLB</t>
+        </is>
+      </c>
+      <c r="B314" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>SNA</t>
+        </is>
+      </c>
+      <c r="B315" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>SNPS</t>
+        </is>
+      </c>
+      <c r="B316" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>SO</t>
+        </is>
+      </c>
+      <c r="B317" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>SPG</t>
+        </is>
+      </c>
+      <c r="B318" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>SPGI</t>
+        </is>
+      </c>
+      <c r="B319" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>SRE</t>
+        </is>
+      </c>
+      <c r="B320" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>STE</t>
+        </is>
+      </c>
+      <c r="B321" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>STX</t>
+        </is>
+      </c>
+      <c r="B322" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>STZ</t>
+        </is>
+      </c>
+      <c r="B323" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>SWK</t>
+        </is>
+      </c>
+      <c r="B324" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>SWKS</t>
+        </is>
+      </c>
+      <c r="B325" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>SYK</t>
+        </is>
+      </c>
+      <c r="B326" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="B327" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>TAP</t>
+        </is>
+      </c>
+      <c r="B328" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>TDG</t>
+        </is>
+      </c>
+      <c r="B329" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>TDY</t>
+        </is>
+      </c>
+      <c r="B330" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>TECH</t>
+        </is>
+      </c>
+      <c r="B331" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>TEL</t>
+        </is>
+      </c>
+      <c r="B332" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>TFC</t>
+        </is>
+      </c>
+      <c r="B333" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>TFX</t>
+        </is>
+      </c>
+      <c r="B334" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>TGT</t>
+        </is>
+      </c>
+      <c r="B335" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>TMO</t>
+        </is>
+      </c>
+      <c r="B336" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>TMUS</t>
+        </is>
+      </c>
+      <c r="B337" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>TRMB</t>
+        </is>
+      </c>
+      <c r="B338" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>TRV</t>
+        </is>
+      </c>
+      <c r="B339" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+      <c r="B340" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>TSN</t>
+        </is>
+      </c>
+      <c r="B341" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>TT</t>
+        </is>
+      </c>
+      <c r="B342" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>TTWO</t>
+        </is>
+      </c>
+      <c r="B343" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>TXN</t>
+        </is>
+      </c>
+      <c r="B344" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>TXT</t>
+        </is>
+      </c>
+      <c r="B345" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>UAL</t>
+        </is>
+      </c>
+      <c r="B346" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>UDR</t>
+        </is>
+      </c>
+      <c r="B347" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>UHS</t>
+        </is>
+      </c>
+      <c r="B348" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>ULTA</t>
+        </is>
+      </c>
+      <c r="B349" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>UNH</t>
+        </is>
+      </c>
+      <c r="B350" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>UNP</t>
+        </is>
+      </c>
+      <c r="B351" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>UPS</t>
+        </is>
+      </c>
+      <c r="B352" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>V</t>
+        </is>
+      </c>
+      <c r="B353" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>VFC</t>
+        </is>
+      </c>
+      <c r="B354" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>VLO</t>
+        </is>
+      </c>
+      <c r="B355" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>VMC</t>
+        </is>
+      </c>
+      <c r="B356" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
           <t>VNO</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B357" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>VRSK</t>
+        </is>
+      </c>
+      <c r="B358" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>VRTX</t>
+        </is>
+      </c>
+      <c r="B359" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>VTR</t>
+        </is>
+      </c>
+      <c r="B360" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>VTRS</t>
+        </is>
+      </c>
+      <c r="B361" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>VZ</t>
+        </is>
+      </c>
+      <c r="B362" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="B363" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>WBD</t>
+        </is>
+      </c>
+      <c r="B364" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>WDC</t>
+        </is>
+      </c>
+      <c r="B365" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>WEC</t>
+        </is>
+      </c>
+      <c r="B366" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>WELL</t>
+        </is>
+      </c>
+      <c r="B367" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>WFC</t>
+        </is>
+      </c>
+      <c r="B368" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>WM</t>
+        </is>
+      </c>
+      <c r="B369" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>WMB</t>
+        </is>
+      </c>
+      <c r="B370" t="n">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>WMT</t>
+        </is>
+      </c>
+      <c r="B371" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>WRB</t>
+        </is>
+      </c>
+      <c r="B372" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>WRK</t>
+        </is>
+      </c>
+      <c r="B373" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>WST</t>
+        </is>
+      </c>
+      <c r="B374" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>WY</t>
+        </is>
+      </c>
+      <c r="B375" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>WYNN</t>
+        </is>
+      </c>
+      <c r="B376" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>XEL</t>
+        </is>
+      </c>
+      <c r="B377" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>XOM</t>
+        </is>
+      </c>
+      <c r="B378" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>XRAY</t>
+        </is>
+      </c>
+      <c r="B379" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>XYL</t>
+        </is>
+      </c>
+      <c r="B380" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>YUM</t>
+        </is>
+      </c>
+      <c r="B381" t="n">
         <v>0</v>
       </c>
     </row>
@@ -538,7 +4258,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -573,13 +4293,13 @@
         <v>2010</v>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>73</v>
       </c>
       <c r="D2" t="n">
-        <v>1</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3">
@@ -587,83 +4307,167 @@
         <v>2011</v>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>78</v>
       </c>
       <c r="D3" t="n">
-        <v>3</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>2013</v>
+        <v>2012</v>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="C4" t="n">
-        <v>8</v>
+        <v>78</v>
       </c>
       <c r="D4" t="n">
-        <v>4</v>
+        <v>54</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>2014</v>
+        <v>2013</v>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>2018</v>
+        <v>2014</v>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>92</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>2020</v>
+        <v>2015</v>
       </c>
       <c r="B7" t="n">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="C7" t="n">
-        <v>7</v>
+        <v>43</v>
       </c>
       <c r="D7" t="n">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
+        <v>2016</v>
+      </c>
+      <c r="B8" t="n">
+        <v>25</v>
+      </c>
+      <c r="C8" t="n">
+        <v>60</v>
+      </c>
+      <c r="D8" t="n">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>2017</v>
+      </c>
+      <c r="B9" t="n">
+        <v>24</v>
+      </c>
+      <c r="C9" t="n">
+        <v>80</v>
+      </c>
+      <c r="D9" t="n">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>2018</v>
+      </c>
+      <c r="B10" t="n">
+        <v>14</v>
+      </c>
+      <c r="C10" t="n">
+        <v>120</v>
+      </c>
+      <c r="D10" t="n">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>2019</v>
+      </c>
+      <c r="B11" t="n">
+        <v>18</v>
+      </c>
+      <c r="C11" t="n">
+        <v>119</v>
+      </c>
+      <c r="D11" t="n">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>2020</v>
+      </c>
+      <c r="B12" t="n">
+        <v>51</v>
+      </c>
+      <c r="C12" t="n">
+        <v>289</v>
+      </c>
+      <c r="D12" t="n">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>2021</v>
+      </c>
+      <c r="B13" t="n">
+        <v>74</v>
+      </c>
+      <c r="C13" t="n">
+        <v>374</v>
+      </c>
+      <c r="D13" t="n">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
         <v>2022</v>
       </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0</v>
+      <c r="B14" t="n">
+        <v>21</v>
+      </c>
+      <c r="C14" t="n">
+        <v>205</v>
+      </c>
+      <c r="D14" t="n">
+        <v>76</v>
       </c>
     </row>
   </sheetData>
@@ -677,7 +4481,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -705,12 +4509,12 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>APD</t>
+          <t>ADSK</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>opportunity</t>
+          <t>risk</t>
         </is>
       </c>
       <c r="C2" t="n">
@@ -720,15 +4524,1215 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
+          <t>AMT</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>opportunity</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>APD</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>opportunity</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>APD</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>opportunity, assertive</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>APD</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>opportunity, hedged</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>APD</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>opportunity, hedged, assertive</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>APD</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>opportunity, risk</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>APH</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>risk</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>BKR</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>opportunity</t>
+        </is>
+      </c>
+      <c r="C10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>BKR</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>opportunity, assertive</t>
+        </is>
+      </c>
+      <c r="C11" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>CCL</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>opportunity, assertive</t>
+        </is>
+      </c>
+      <c r="C12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>CF</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>opportunity</t>
+        </is>
+      </c>
+      <c r="C13" t="n">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>CF</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>opportunity, assertive</t>
+        </is>
+      </c>
+      <c r="C14" t="n">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>CF</t>
+        </is>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>opportunity, hedged, assertive</t>
+        </is>
+      </c>
+      <c r="C15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>CF</t>
+        </is>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>opportunity, risk, assertive</t>
+        </is>
+      </c>
+      <c r="C16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>CF</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>risk</t>
+        </is>
+      </c>
+      <c r="C17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>CF</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>risk, hedged</t>
+        </is>
+      </c>
+      <c r="C18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>CMI</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>opportunity, hedged, assertive</t>
+        </is>
+      </c>
+      <c r="C19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>CMI</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>risk, assertive</t>
+        </is>
+      </c>
+      <c r="C20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>CNP</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>opportunity, assertive</t>
+        </is>
+      </c>
+      <c r="C21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>CSX</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>opportunity, assertive</t>
+        </is>
+      </c>
+      <c r="C22" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>CSX</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>opportunity, hedged, assertive</t>
+        </is>
+      </c>
+      <c r="C23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>CSX</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>opportunity, risk</t>
+        </is>
+      </c>
+      <c r="C24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>CSX</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>opportunity, risk, assertive</t>
+        </is>
+      </c>
+      <c r="C25" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>opportunity, assertive</t>
+        </is>
+      </c>
+      <c r="C26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
           <t>DLTR</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>opportunity</t>
+        </is>
+      </c>
+      <c r="C27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>DLTR</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
         <is>
           <t>opportunity, assertive</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C28" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>DOV</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>opportunity</t>
+        </is>
+      </c>
+      <c r="C29" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>DTE</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>opportunity, hedged</t>
+        </is>
+      </c>
+      <c r="C30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>DVN</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>opportunity</t>
+        </is>
+      </c>
+      <c r="C31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>ES</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>opportunity, assertive</t>
+        </is>
+      </c>
+      <c r="C32" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>FDX</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>risk, hedged</t>
+        </is>
+      </c>
+      <c r="C33" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>FMC</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>opportunity, hedged</t>
+        </is>
+      </c>
+      <c r="C34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>GE</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>opportunity, hedged, assertive</t>
+        </is>
+      </c>
+      <c r="C35" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>GM</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>opportunity, hedged, assertive</t>
+        </is>
+      </c>
+      <c r="C36" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>HON</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>risk, assertive</t>
+        </is>
+      </c>
+      <c r="C37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>HPQ</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>risk</t>
+        </is>
+      </c>
+      <c r="C38" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>IBM</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>opportunity, assertive</t>
+        </is>
+      </c>
+      <c r="C39" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>IR</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>opportunity</t>
+        </is>
+      </c>
+      <c r="C40" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>IR</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>opportunity, hedged</t>
+        </is>
+      </c>
+      <c r="C41" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>opportunity</t>
+        </is>
+      </c>
+      <c r="C42" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>opportunity, assertive</t>
+        </is>
+      </c>
+      <c r="C43" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>opportunity, hedged</t>
+        </is>
+      </c>
+      <c r="C44" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>opportunity, hedged, assertive</t>
+        </is>
+      </c>
+      <c r="C45" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>opportunity, risk, assertive</t>
+        </is>
+      </c>
+      <c r="C46" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>J</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>risk</t>
+        </is>
+      </c>
+      <c r="C47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>KMI</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>opportunity, assertive</t>
+        </is>
+      </c>
+      <c r="C48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>KMI</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>opportunity, hedged, assertive</t>
+        </is>
+      </c>
+      <c r="C49" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>KMI</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>opportunity, risk</t>
+        </is>
+      </c>
+      <c r="C50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>LH</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>risk, assertive</t>
+        </is>
+      </c>
+      <c r="C51" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>LIN</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>opportunity</t>
+        </is>
+      </c>
+      <c r="C52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>LIN</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>opportunity, assertive</t>
+        </is>
+      </c>
+      <c r="C53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>LIN</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>opportunity, hedged</t>
+        </is>
+      </c>
+      <c r="C54" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>LIN</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>opportunity, hedged, assertive</t>
+        </is>
+      </c>
+      <c r="C55" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>LIN</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>opportunity, risk</t>
+        </is>
+      </c>
+      <c r="C56" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>LIN</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>opportunity, risk, assertive</t>
+        </is>
+      </c>
+      <c r="C57" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>LIN</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>risk</t>
+        </is>
+      </c>
+      <c r="C58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>MCK</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>opportunity</t>
+        </is>
+      </c>
+      <c r="C59" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>NEE</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>opportunity</t>
+        </is>
+      </c>
+      <c r="C60" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>NEE</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>opportunity, assertive</t>
+        </is>
+      </c>
+      <c r="C61" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>NEE</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>opportunity, hedged</t>
+        </is>
+      </c>
+      <c r="C62" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>NEE</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>opportunity, hedged, assertive</t>
+        </is>
+      </c>
+      <c r="C63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>OKE</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>opportunity, assertive</t>
+        </is>
+      </c>
+      <c r="C64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>PEG</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>opportunity, hedged</t>
+        </is>
+      </c>
+      <c r="C65" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>PPL</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>opportunity, assertive</t>
+        </is>
+      </c>
+      <c r="C66" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>REGN</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>opportunity, hedged, assertive</t>
+        </is>
+      </c>
+      <c r="C67" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>REGN</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>risk</t>
+        </is>
+      </c>
+      <c r="C68" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>REGN</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>risk, assertive</t>
+        </is>
+      </c>
+      <c r="C69" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>SLB</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>risk, assertive</t>
+        </is>
+      </c>
+      <c r="C70" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>SO</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>risk, hedged</t>
+        </is>
+      </c>
+      <c r="C71" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>SRE</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>opportunity, risk</t>
+        </is>
+      </c>
+      <c r="C72" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>T</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>opportunity, assertive</t>
+        </is>
+      </c>
+      <c r="C73" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>TSLA</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>risk, assertive</t>
+        </is>
+      </c>
+      <c r="C74" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>UNP</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>risk</t>
+        </is>
+      </c>
+      <c r="C75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>VRSK</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>opportunity</t>
+        </is>
+      </c>
+      <c r="C76" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>WAB</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>opportunity, assertive</t>
+        </is>
+      </c>
+      <c r="C77" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>WMB</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>opportunity</t>
+        </is>
+      </c>
+      <c r="C78" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>WMB</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>opportunity, assertive</t>
+        </is>
+      </c>
+      <c r="C79" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>WMB</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>risk, assertive</t>
+        </is>
+      </c>
+      <c r="C80" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>XOM</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>opportunity</t>
+        </is>
+      </c>
+      <c r="C81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>XOM</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>opportunity, assertive</t>
+        </is>
+      </c>
+      <c r="C82" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>XOM</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>opportunity, hedged</t>
+        </is>
+      </c>
+      <c r="C83" t="n">
         <v>1</v>
       </c>
     </row>
